--- a/random/results/sensitivity/gaps_benchmark/all1.xlsx
+++ b/random/results/sensitivity/gaps_benchmark/all1.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/random/results/sensitivity/gaps_benchmark/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/random/results/sensitivity/gaps_benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245C5EBE-2D8C-194A-B8FC-35C46DA6AABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="30720" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="30720" windowHeight="17240"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>CV-R</t>
   </si>
@@ -46,11 +51,17 @@
   <si>
     <t>static2SSP-R</t>
   </si>
+  <si>
+    <t>wait-and-see</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -529,13 +540,14 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -891,11 +903,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -904,7 +916,7 @@
     <col min="2" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -912,411 +924,466 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>668.87310790000004</v>
+        <v>637.86344150000002</v>
       </c>
       <c r="B2">
-        <v>681.1381682</v>
+        <v>651.73575530000005</v>
       </c>
       <c r="C2">
-        <v>4006.4152909999998</v>
+        <v>651.43995580000001</v>
       </c>
       <c r="D2">
-        <v>5577.3302530000001</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>4094.2388740000001</v>
+      </c>
+      <c r="E2">
+        <v>4838.6550889999999</v>
+      </c>
       <c r="F2" s="2">
         <v>0.05</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <f>(B2-$A2)/$A2</f>
-        <v>1.8336901506636215E-2</v>
-      </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:I2" si="0">(C2-$A2)/$A2</f>
-        <v>4.9897987281602294</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" si="0"/>
-        <v>7.338398101413639</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.1748093553344096E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <f>(C2-$A2)/$A2</f>
+        <v>2.1284358714889581E-2</v>
+      </c>
+      <c r="I2" s="4">
+        <f>(D2-$A2)/$A2</f>
+        <v>5.4186761736524449</v>
+      </c>
+      <c r="J2" s="4">
+        <f>(E2-$A2)/$A2</f>
+        <v>6.5857225452855808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>681.33780220000006</v>
+        <v>655.4050416</v>
       </c>
       <c r="B3">
-        <v>797.65892980000001</v>
+        <v>764.19803730000001</v>
       </c>
       <c r="C3">
-        <v>4078.5467950000002</v>
+        <v>766.70473140000001</v>
       </c>
       <c r="D3">
-        <v>5591.1205040000004</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>4128.7297189999999</v>
+      </c>
+      <c r="E3">
+        <v>4849.1916929999998</v>
+      </c>
       <c r="F3" s="2">
         <v>0.1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <f>(B3-$A3)/$A3</f>
-        <v>0.17072460565729042</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:I3" si="1">(C3-$A3)/$A3</f>
-        <v>4.9860861702236541</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" si="1"/>
-        <v>7.2060917300443315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.16599352887858532</v>
+      </c>
+      <c r="H3" s="4">
+        <f>(C3-$A3)/$A3</f>
+        <v>0.16981817766962995</v>
+      </c>
+      <c r="I3" s="4">
+        <f>(D3-$A3)/$A3</f>
+        <v>5.2995086350278697</v>
+      </c>
+      <c r="J3" s="4">
+        <f>(E3-$A3)/$A3</f>
+        <v>6.3987708137886248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>693.8024964</v>
+        <v>665.97388920000003</v>
       </c>
       <c r="B4">
-        <v>910.74405360000003</v>
+        <v>875.14518090000001</v>
       </c>
       <c r="C4">
-        <v>4148.192849</v>
+        <v>881.96950700000002</v>
       </c>
       <c r="D4">
-        <v>5604.2448530000001</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>4162.3372390000004</v>
+      </c>
+      <c r="E4">
+        <v>4860.0398519999999</v>
+      </c>
       <c r="F4" s="2">
         <v>0.15</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G14" si="2">(B4-$A4)/$A4</f>
-        <v>0.31268488990118315</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H14" si="3">(C4-$A4)/$A4</f>
-        <v>4.9789246515025942</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" ref="I4:I14" si="4">(D4-$A4)/$A4</f>
-        <v>7.0775795447253174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G11" si="0">(B4-$A4)/$A4</f>
+        <v>0.31408332232254127</v>
+      </c>
+      <c r="H4" s="4">
+        <f>(C4-$A4)/$A4</f>
+        <v>0.32433045995161214</v>
+      </c>
+      <c r="I4" s="4">
+        <f>(D4-$A4)/$A4</f>
+        <v>5.2500006479232999</v>
+      </c>
+      <c r="J4" s="4">
+        <f>(E4-$A4)/$A4</f>
+        <v>6.2976432421969486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>706.26719070000001</v>
+        <v>676.40887650000002</v>
       </c>
       <c r="B5">
-        <v>1022.2084</v>
+        <v>980.7120668</v>
       </c>
       <c r="C5">
-        <v>4190.1362250000002</v>
+        <v>997.23428249999995</v>
       </c>
       <c r="D5">
-        <v>5619.0635659999998</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>4186.6777339999999</v>
+      </c>
+      <c r="E5">
+        <v>4873.8786140000002</v>
+      </c>
       <c r="F5" s="2">
         <v>0.2</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="2"/>
-        <v>0.44733949624201336</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="3"/>
-        <v>4.9327918388040173</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="4"/>
-        <v>6.9560025440666404</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.4498805395260066</v>
+      </c>
+      <c r="H5" s="4">
+        <f>(C5-$A5)/$A5</f>
+        <v>0.47430691279522247</v>
+      </c>
+      <c r="I5" s="4">
+        <f>(D5-$A5)/$A5</f>
+        <v>5.1895665173163934</v>
+      </c>
+      <c r="J5" s="4">
+        <f>(E5-$A5)/$A5</f>
+        <v>6.2055213692926756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>718.73188500000003</v>
+        <v>686.84386380000001</v>
       </c>
       <c r="B6">
-        <v>1121.5524700000001</v>
+        <v>1069.965144</v>
       </c>
       <c r="C6">
-        <v>4216.7517939999998</v>
+        <v>1112.4990580000001</v>
       </c>
       <c r="D6">
-        <v>5631.3603419999999</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>4210.8534730000001</v>
+      </c>
+      <c r="E6">
+        <v>4881.0714170000001</v>
+      </c>
       <c r="F6" s="2">
         <v>0.25</v>
       </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.56046015684972716</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="3"/>
-        <v>4.8669329718132648</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="4"/>
-        <v>6.8351336006193737</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5577996694625198</v>
+      </c>
+      <c r="H6" s="4">
+        <f>(C6-$A6)/$A6</f>
+        <v>0.61972628225145698</v>
+      </c>
+      <c r="I6" s="4">
+        <f>(D6-$A6)/$A6</f>
+        <v>5.1307288234377326</v>
+      </c>
+      <c r="J6" s="4">
+        <f>(E6-$A6)/$A6</f>
+        <v>6.106522565398218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>731.19657919999997</v>
+        <v>697.27885119999996</v>
       </c>
       <c r="B7">
-        <v>1210.5404920000001</v>
+        <v>1153.539538</v>
       </c>
       <c r="C7">
-        <v>4288.7096689999998</v>
+        <v>1227.7638340000001</v>
       </c>
       <c r="D7">
-        <v>5644.1405279999999</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>4248.4316790000003</v>
+      </c>
+      <c r="E7">
+        <v>4891.4158269999998</v>
+      </c>
       <c r="F7" s="2">
         <v>0.3</v>
       </c>
-      <c r="G7" s="1">
-        <f t="shared" si="2"/>
-        <v>0.65556093454984277</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="3"/>
-        <v>4.8653305978157944</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="4"/>
-        <v>6.7190466812293312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.65434465137553866</v>
+      </c>
+      <c r="H7" s="4">
+        <f>(C7-$A7)/$A7</f>
+        <v>0.76079316314706569</v>
+      </c>
+      <c r="I7" s="4">
+        <f>(D7-$A7)/$A7</f>
+        <v>5.0928732768655651</v>
+      </c>
+      <c r="J7" s="4">
+        <f>(E7-$A7)/$A7</f>
+        <v>6.015006720169402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>743.66127349999999</v>
+        <v>707.71383849999995</v>
       </c>
       <c r="B8">
-        <v>1291.680926</v>
+        <v>1231.56807</v>
       </c>
       <c r="C8">
-        <v>4304.9787640000004</v>
+        <v>1343.028609</v>
       </c>
       <c r="D8">
-        <v>5658.1994910000003</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>4278.3880680000002</v>
+      </c>
+      <c r="E8">
+        <v>4901.8197929999997</v>
+      </c>
       <c r="F8" s="2">
         <v>0.35</v>
       </c>
-      <c r="G8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.73692105805211061</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="3"/>
-        <v>4.7888973345873715</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="4"/>
-        <v>6.6085708542681028</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.74020628536854605</v>
+      </c>
+      <c r="H8" s="4">
+        <f>(C8-$A8)/$A8</f>
+        <v>0.89770008149981939</v>
+      </c>
+      <c r="I8" s="4">
+        <f>(D8-$A8)/$A8</f>
+        <v>5.0453644329861449</v>
+      </c>
+      <c r="J8" s="4">
+        <f>(E8-$A8)/$A8</f>
+        <v>5.9262737653815147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>756.12596780000001</v>
+        <v>718.14882580000005</v>
       </c>
       <c r="B9">
-        <v>1370.548959</v>
+        <v>1306.806243</v>
       </c>
       <c r="C9">
-        <v>4296.0553900000004</v>
+        <v>1458.2933849999999</v>
       </c>
       <c r="D9">
-        <v>5670.5740089999999</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>4310.1987669999999</v>
+      </c>
+      <c r="E9">
+        <v>4912.3304969999999</v>
+      </c>
       <c r="F9" s="2">
         <v>0.4</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" si="2"/>
-        <v>0.81259342671129986</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="3"/>
-        <v>4.6816662473577866</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="4"/>
-        <v>6.4995096723088635</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.81968722366739255</v>
+      </c>
+      <c r="H9" s="4">
+        <f>(C9-$A9)/$A9</f>
+        <v>1.0306283775866334</v>
+      </c>
+      <c r="I9" s="4">
+        <f>(D9-$A9)/$A9</f>
+        <v>5.0018183030495731</v>
+      </c>
+      <c r="J9" s="4">
+        <f>(E9-$A9)/$A9</f>
+        <v>5.8402680900129376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>768.59066199999995</v>
+        <v>728.58381320000001</v>
       </c>
       <c r="B10">
-        <v>1443.2736580000001</v>
+        <v>1379.487171</v>
       </c>
       <c r="C10">
-        <v>4264.9450200000001</v>
+        <v>1573.55816</v>
       </c>
       <c r="D10">
-        <v>5682.9866840000004</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>4316.1801260000002</v>
+      </c>
+      <c r="E10">
+        <v>4922.7347719999998</v>
+      </c>
       <c r="F10" s="2">
         <v>0.45</v>
       </c>
-      <c r="G10" s="1">
-        <f t="shared" si="2"/>
-        <v>0.87781836204510144</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="3"/>
-        <v>4.5490461058971343</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="4"/>
-        <v>6.3940355575124084</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.89338157945230612</v>
+      </c>
+      <c r="H10" s="4">
+        <f>(C10-$A10)/$A10</f>
+        <v>1.1597489972894173</v>
+      </c>
+      <c r="I10" s="4">
+        <f>(D10-$A10)/$A10</f>
+        <v>4.9240681000624793</v>
+      </c>
+      <c r="J10" s="4">
+        <f>(E10-$A10)/$A10</f>
+        <v>5.756579933307802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>781.05535629999997</v>
+        <v>739.0188005</v>
       </c>
       <c r="B11">
-        <v>1515.3916730000001</v>
+        <v>1446.4878080000001</v>
       </c>
       <c r="C11">
-        <v>4351.6584050000001</v>
+        <v>1688.822936</v>
       </c>
       <c r="D11">
-        <v>5695.1163310000002</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>4339.8287280000004</v>
+      </c>
+      <c r="E11">
+        <v>4933.1546669999998</v>
+      </c>
       <c r="F11" s="2">
         <v>0.5</v>
       </c>
-      <c r="G11" s="1">
-        <f t="shared" si="2"/>
-        <v>0.94018472669937714</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="3"/>
-        <v>4.5715108665467588</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="4"/>
-        <v>6.2915655530214822</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.95730853805254457</v>
+      </c>
+      <c r="H11" s="4">
+        <f>(C11-$A11)/$A11</f>
+        <v>1.2852232377002972</v>
+      </c>
+      <c r="I11" s="4">
+        <f>(D11-$A11)/$A11</f>
+        <v>4.8724199236390069</v>
+      </c>
+      <c r="J11" s="4">
+        <f>(E11-$A11)/$A11</f>
+        <v>5.6752762766824896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F23" s="2"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F24" s="2"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F26" s="2"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F27" s="2"/>
